--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/030_MarketMetaData/EUR_010_SwaptionVols1.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/030_MarketMetaData/EUR_010_SwaptionVols1.xlsx
@@ -12,9 +12,6 @@
     <sheet name="Quotes" sheetId="1" r:id="rId3"/>
     <sheet name="Guess" sheetId="8" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="areParametersFixed">'Additional Settings'!$D$20:$D$23</definedName>
     <definedName name="Currency">'Additional Settings'!$D$4</definedName>
@@ -254,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="357">
   <si>
     <t>General Settings</t>
   </si>
@@ -1322,6 +1319,9 @@
   </si>
   <si>
     <t>EUR_30Yx30Y_200bp_Quote</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1339,7 @@
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -2215,22 +2215,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2527,7 +2511,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
@@ -2535,13 +2519,13 @@
     <col min="5" max="5" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="106" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="2:5" s="106" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="107" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="106" customFormat="1" ht="15.75">
+    <row r="2" spans="2:5" s="106" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
@@ -2549,13 +2533,13 @@
       <c r="D2" s="124"/>
       <c r="E2" s="125"/>
     </row>
-    <row r="3" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="3" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="4" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="103" t="s">
         <v>54</v>
@@ -2563,7 +2547,7 @@
       <c r="D4" s="104"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="5" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="103" t="s">
         <v>65</v>
@@ -2573,7 +2557,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="6" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="103" t="s">
         <v>76</v>
@@ -2583,7 +2567,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="7" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="103" t="s">
         <v>77</v>
@@ -2593,18 +2577,17 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="8" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="104" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\030_MarketMetaData\</v>
+      <c r="D8" s="104" t="s">
+        <v>356</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="2:5" s="106" customFormat="1" ht="12.75">
+    <row r="9" spans="2:5" s="106" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="103" t="s">
         <v>79</v>
@@ -2614,50 +2597,50 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:5" s="106" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="2:5" s="106" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5" s="106" customFormat="1"/>
-    <row r="12" spans="2:5" s="106" customFormat="1"/>
-    <row r="13" spans="2:5" s="106" customFormat="1"/>
-    <row r="14" spans="2:5" s="106" customFormat="1"/>
-    <row r="15" spans="2:5" s="106" customFormat="1"/>
-    <row r="16" spans="2:5" s="106" customFormat="1"/>
-    <row r="17" s="106" customFormat="1"/>
-    <row r="18" s="106" customFormat="1"/>
-    <row r="19" s="106" customFormat="1"/>
-    <row r="20" s="106" customFormat="1"/>
-    <row r="21" s="106" customFormat="1"/>
-    <row r="22" s="106" customFormat="1"/>
-    <row r="23" s="106" customFormat="1"/>
-    <row r="24" s="106" customFormat="1"/>
-    <row r="25" s="106" customFormat="1"/>
-    <row r="26" s="106" customFormat="1"/>
-    <row r="27" s="106" customFormat="1"/>
-    <row r="28" s="106" customFormat="1"/>
-    <row r="29" s="106" customFormat="1"/>
-    <row r="30" s="106" customFormat="1"/>
-    <row r="31" s="106" customFormat="1"/>
-    <row r="32" s="106" customFormat="1"/>
-    <row r="33" s="106" customFormat="1"/>
-    <row r="34" s="106" customFormat="1"/>
-    <row r="35" s="106" customFormat="1"/>
-    <row r="36" s="106" customFormat="1"/>
-    <row r="37" s="106" customFormat="1"/>
-    <row r="38" s="106" customFormat="1"/>
-    <row r="39" s="106" customFormat="1"/>
-    <row r="40" s="106" customFormat="1"/>
-    <row r="41" s="106" customFormat="1"/>
-    <row r="42" s="106" customFormat="1"/>
-    <row r="43" s="106" customFormat="1"/>
-    <row r="44" s="106" customFormat="1"/>
-    <row r="45" s="106" customFormat="1"/>
-    <row r="46" s="106" customFormat="1"/>
-    <row r="47" s="106" customFormat="1"/>
-    <row r="48" s="106" customFormat="1"/>
+    <row r="11" spans="2:5" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:5" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:5" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:5" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:5" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:5" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="106" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
@@ -2677,7 +2660,7 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
@@ -2690,10 +2673,10 @@
     <col min="10" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="56"/>
     </row>
-    <row r="2" spans="2:8" ht="16.5" thickBot="1">
+    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="123" t="s">
         <v>80</v>
       </c>
@@ -2701,7 +2684,7 @@
       <c r="D2" s="124"/>
       <c r="E2" s="125"/>
     </row>
-    <row r="3" spans="2:8" ht="12.75">
+    <row r="3" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -2714,7 +2697,7 @@
         <v>EurSwaptionVol1EndCriteria#0001</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="13.5" thickBot="1">
+    <row r="4" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="20" t="s">
         <v>1</v>
@@ -2731,7 +2714,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12.75">
+    <row r="5" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
@@ -2749,7 +2732,7 @@
         <v>EurSwaptionVol1EndCriteria</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12.75">
+    <row r="6" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="126" t="s">
         <v>41</v>
@@ -2765,7 +2748,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12.75">
+    <row r="7" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="126"/>
       <c r="D7" s="14" t="s">
@@ -2779,7 +2762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12.75">
+    <row r="8" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="126"/>
       <c r="D8" s="14" t="s">
@@ -2793,7 +2776,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12.75">
+    <row r="9" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="126"/>
       <c r="D9" s="14" t="s">
@@ -2807,7 +2790,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12.75">
+    <row r="10" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="126"/>
       <c r="D10" s="14" t="s">
@@ -2821,7 +2804,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="13.5" thickBot="1">
+    <row r="11" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="127"/>
       <c r="D11" s="19" t="s">
@@ -2833,7 +2816,7 @@
       </c>
       <c r="H11" s="72"/>
     </row>
-    <row r="12" spans="2:8" ht="13.5" thickBot="1">
+    <row r="12" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="128" t="s">
         <v>42</v>
@@ -2843,7 +2826,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="12.75">
+    <row r="13" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="129"/>
       <c r="D13" s="14" t="s">
@@ -2858,7 +2841,7 @@
         <v>EurSwaptionVol1LevenbergMarquardt#0001</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="13.5" thickBot="1">
+    <row r="14" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="129"/>
       <c r="D14" s="14" t="s">
@@ -2873,7 +2856,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12.75">
+    <row r="15" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="129"/>
       <c r="D15" s="14" t="s">
@@ -2888,7 +2871,7 @@
         <v>EurSwaptionVol1LevenbergMarquardt</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12.75">
+    <row r="16" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="130"/>
       <c r="D16" s="19" t="s">
@@ -2900,7 +2883,7 @@
       </c>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="2:9" ht="12.75">
+    <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="22" t="s">
         <v>85</v>
@@ -2914,7 +2897,7 @@
       </c>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:9" ht="12.75">
+    <row r="18" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="22" t="s">
         <v>86</v>
@@ -2928,7 +2911,7 @@
       </c>
       <c r="H18" s="70"/>
     </row>
-    <row r="19" spans="2:9" ht="12.75">
+    <row r="19" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="13" t="s">
         <v>55</v>
@@ -2942,7 +2925,7 @@
       </c>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:9" ht="13.5" thickBot="1">
+    <row r="20" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="13" t="s">
         <v>50</v>
@@ -2956,7 +2939,7 @@
       </c>
       <c r="H20" s="72"/>
     </row>
-    <row r="21" spans="2:9" ht="13.5" thickBot="1">
+    <row r="21" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="13" t="s">
         <v>43</v>
@@ -2966,7 +2949,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:9" ht="12.75">
+    <row r="22" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="13" t="s">
         <v>51</v>
@@ -2983,7 +2966,7 @@
         <v>EurSwaptionVol1Simplex#0001</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="13.5" thickBot="1">
+    <row r="23" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="13" t="s">
         <v>52</v>
@@ -3000,7 +2983,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="12.75">
+    <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="13" t="s">
         <v>53</v>
@@ -3017,7 +3000,7 @@
         <v>EurSwaptionVol1Simplex</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="12.75">
+    <row r="25" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="13" t="s">
         <v>58</v>
@@ -3033,7 +3016,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="12.75">
+    <row r="26" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="13" t="s">
         <v>73</v>
@@ -3047,7 +3030,7 @@
       </c>
       <c r="H26" s="70"/>
     </row>
-    <row r="27" spans="2:9" ht="13.5" thickBot="1">
+    <row r="27" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="13" t="s">
         <v>74</v>
@@ -3062,7 +3045,7 @@
       </c>
       <c r="H27" s="72"/>
     </row>
-    <row r="28" spans="2:9" ht="12.75">
+    <row r="28" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="13" t="str">
         <f>PROPER(Currency)&amp;"SwaptionVol1"</f>
@@ -3074,7 +3057,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:9" ht="13.5" thickBot="1">
+    <row r="29" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="13" t="s">
         <v>75</v>
@@ -3085,7 +3068,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="2:9" ht="15.75">
+    <row r="30" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="13" t="s">
         <v>81</v>
@@ -3101,7 +3084,7 @@
       <c r="H30" s="124"/>
       <c r="I30" s="125"/>
     </row>
-    <row r="31" spans="2:9" ht="13.5" thickBot="1">
+    <row r="31" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -3116,7 +3099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G32" s="112" t="str">
         <f>H3</f>
         <v>EurSwaptionVol1EndCriteria#0001</v>
@@ -3130,7 +3113,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="7:9">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G33" s="112" t="str">
         <f>H13</f>
         <v>EurSwaptionVol1LevenbergMarquardt#0001</v>
@@ -3138,7 +3121,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="113"/>
     </row>
-    <row r="34" spans="7:9">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G34" s="121" t="str">
         <f>H22</f>
         <v>EurSwaptionVol1Simplex#0001</v>
@@ -3146,7 +3129,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="113"/>
     </row>
-    <row r="35" spans="7:9" ht="12" thickBot="1">
+    <row r="35" spans="7:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G35" s="114" t="e">
         <f>VolCube</f>
         <v>#NUM!</v>
@@ -3186,7 +3169,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="12"/>
     <col min="2" max="2" width="26.33203125" style="12" bestFit="1" customWidth="1"/>
@@ -3202,7 +3185,7 @@
     <col min="22" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
       <c r="B1" s="53">
         <v>-0.02</v>
@@ -3232,7 +3215,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -3265,7 +3248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
@@ -3298,7 +3281,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
@@ -3363,7 +3346,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
@@ -3395,7 +3378,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -3427,7 +3410,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
@@ -3459,7 +3442,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
@@ -3491,7 +3474,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3506,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
@@ -3555,7 +3538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
@@ -3587,7 +3570,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
@@ -3619,7 +3602,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>23</v>
       </c>
@@ -3651,7 +3634,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>24</v>
       </c>
@@ -3683,7 +3666,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
@@ -3715,7 +3698,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
@@ -3747,7 +3730,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
@@ -3779,7 +3762,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>28</v>
       </c>
@@ -3811,7 +3794,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
@@ -3843,7 +3826,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
@@ -3875,7 +3858,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
@@ -3907,7 +3890,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>32</v>
       </c>
@@ -3939,7 +3922,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>33</v>
       </c>
@@ -3971,7 +3954,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>34</v>
       </c>
@@ -4003,7 +3986,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>35</v>
       </c>
@@ -4035,7 +4018,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>36</v>
       </c>
@@ -4067,7 +4050,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>37</v>
       </c>
@@ -4099,7 +4082,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>38</v>
       </c>
@@ -4131,7 +4114,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>39</v>
       </c>
@@ -4163,7 +4146,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>40</v>
       </c>
@@ -4195,7 +4178,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4224,7 +4207,7 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -4242,7 +4225,7 @@
     <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
         <v>56</v>
       </c>
@@ -4284,7 +4267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -4327,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
@@ -4370,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
@@ -4413,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
@@ -4456,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -4499,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
@@ -4542,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -4585,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>6</v>
       </c>
@@ -4628,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>6</v>
       </c>
@@ -4671,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
@@ -4714,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>6</v>
       </c>
@@ -4757,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
@@ -4800,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>7</v>
       </c>
@@ -4843,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
@@ -4886,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>7</v>
       </c>
@@ -4972,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>7</v>
       </c>
@@ -5015,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>8</v>
       </c>
@@ -5101,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>8</v>
       </c>
@@ -5144,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>8</v>
       </c>
@@ -5187,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>8</v>
       </c>
@@ -5230,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>8</v>
       </c>
@@ -5273,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>9</v>
       </c>
@@ -5359,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>9</v>
       </c>
@@ -5402,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>9</v>
       </c>
@@ -5445,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>9</v>
       </c>
@@ -5488,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>9</v>
       </c>
@@ -5531,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>9</v>
       </c>
@@ -5574,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="108" t="s">
         <v>83</v>
       </c>
@@ -5582,17 +5565,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="122" t="str">
         <f>Currency&amp;"_010_CalibrationParameterGuessesQuotes.xml"</f>
         <v>EUR_010_CalibrationParameterGuessesQuotes.xml</v>
       </c>
-      <c r="D34" s="109" t="e">
+      <c r="D34" s="109">
         <f>IF(Serialize,_xll.ohObjectSave(C36:F65,SerializationPath&amp;C34,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="118" t="str">
         <f>C1&amp;"_Object Ids"</f>
         <v>EurSwaptionAlpha_Object Ids</v>
@@ -5606,7 +5589,7 @@
         <v>EurSwaptionRho_Object Ids</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="117" t="str">
         <f>C2</f>
         <v>EurSwaptionAlpha_guess_2Y_3m#0001</v>
@@ -5620,7 +5603,7 @@
         <v>EurSwaptionRho_guess_2Y_3m#0000</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="119" t="str">
         <f t="shared" ref="C37:C65" si="2">C3</f>
         <v>EurSwaptionAlpha_guess_2Y_1Y#0001</v>
@@ -5634,7 +5617,7 @@
         <v>EurSwaptionRho_guess_2Y_1Y#0001</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_2Y_5Y#0001</v>
@@ -5648,7 +5631,7 @@
         <v>EurSwaptionRho_guess_2Y_5Y#0001</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_2Y_10Y#0001</v>
@@ -5662,7 +5645,7 @@
         <v>EurSwaptionRho_guess_2Y_10Y#0001</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_2Y_20Y#0001</v>
@@ -5676,7 +5659,7 @@
         <v>EurSwaptionRho_guess_2Y_20Y#0001</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_2Y_30Y#0001</v>
@@ -5690,7 +5673,7 @@
         <v>EurSwaptionRho_guess_2Y_30Y#0001</v>
       </c>
     </row>
-    <row r="42" spans="3:6">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_5Y_3m#0000</v>
@@ -5704,7 +5687,7 @@
         <v>EurSwaptionRho_guess_5Y_3m#0001</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_5Y_1Y#0001</v>
@@ -5718,7 +5701,7 @@
         <v>EurSwaptionRho_guess_5Y_1Y#0000</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_5Y_5Y#0001</v>
@@ -5732,7 +5715,7 @@
         <v>EurSwaptionRho_guess_5Y_5Y#0001</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_5Y_10Y#0001</v>
@@ -5746,7 +5729,7 @@
         <v>EurSwaptionRho_guess_5Y_10Y#0001</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_5Y_20Y#0001</v>
@@ -5760,7 +5743,7 @@
         <v>EurSwaptionRho_guess_5Y_20Y#0001</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_5Y_30Y#0001</v>
@@ -5774,7 +5757,7 @@
         <v>EurSwaptionRho_guess_5Y_30Y#0001</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_10Y_3m#0001</v>
@@ -5788,7 +5771,7 @@
         <v>EurSwaptionRho_guess_10Y_3m#0001</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_10Y_1Y#0001</v>
@@ -5802,7 +5785,7 @@
         <v>EurSwaptionRho_guess_10Y_1Y#0001</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_10Y_5Y#0001</v>
@@ -5816,7 +5799,7 @@
         <v>EurSwaptionRho_guess_10Y_5Y#0001</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_10Y_10Y#0000</v>
@@ -5830,7 +5813,7 @@
         <v>EurSwaptionRho_guess_10Y_10Y#0000</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_10Y_20Y#0000</v>
@@ -5844,7 +5827,7 @@
         <v>EurSwaptionRho_guess_10Y_20Y#0001</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_10Y_30Y#0000</v>
@@ -5858,7 +5841,7 @@
         <v>EurSwaptionRho_guess_10Y_30Y#0001</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_20Y_3m#0000</v>
@@ -5872,7 +5855,7 @@
         <v>EurSwaptionRho_guess_20Y_3m#0001</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_20Y_1Y#0000</v>
@@ -5886,7 +5869,7 @@
         <v>EurSwaptionRho_guess_20Y_1Y#0001</v>
       </c>
     </row>
-    <row r="56" spans="3:6">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_20Y_5Y#0001</v>
@@ -5900,7 +5883,7 @@
         <v>EurSwaptionRho_guess_20Y_5Y#0001</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_20Y_10Y#0000</v>
@@ -5914,7 +5897,7 @@
         <v>EurSwaptionRho_guess_20Y_10Y#0001</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_20Y_20Y#0001</v>
@@ -5928,7 +5911,7 @@
         <v>EurSwaptionRho_guess_20Y_20Y#0001</v>
       </c>
     </row>
-    <row r="59" spans="3:6">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_20Y_30Y#0001</v>
@@ -5942,7 +5925,7 @@
         <v>EurSwaptionRho_guess_20Y_30Y#0000</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_30Y_3m#0001</v>
@@ -5956,7 +5939,7 @@
         <v>EurSwaptionRho_guess_30Y_3m#0001</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_30Y_1Y#0001</v>
@@ -5970,7 +5953,7 @@
         <v>EurSwaptionRho_guess_30Y_1Y#0001</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_30Y_5Y#0000</v>
@@ -5984,7 +5967,7 @@
         <v>EurSwaptionRho_guess_30Y_5Y#0001</v>
       </c>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_30Y_10Y#0001</v>
@@ -5998,7 +5981,7 @@
         <v>EurSwaptionRho_guess_30Y_10Y#0001</v>
       </c>
     </row>
-    <row r="64" spans="3:6">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="119" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_30Y_20Y#0001</v>
@@ -6012,7 +5995,7 @@
         <v>EurSwaptionRho_guess_30Y_20Y#0001</v>
       </c>
     </row>
-    <row r="65" spans="3:6">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="120" t="str">
         <f t="shared" si="2"/>
         <v>EurSwaptionAlpha_guess_30Y_30Y#0001</v>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/030_MarketMetaData/EUR_010_SwaptionVols1.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/030_MarketMetaData/EUR_010_SwaptionVols1.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="356">
   <si>
     <t>General Settings</t>
   </si>
@@ -1319,9 +1319,6 @@
   </si>
   <si>
     <t>EUR_30Yx30Y_200bp_Quote</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -2582,8 +2579,9 @@
       <c r="C8" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="104" t="s">
-        <v>356</v>
+      <c r="D8" s="104" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\030_MarketMetaData\</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -3073,9 +3071,9 @@
       <c r="C30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="101" t="str">
+      <c r="D30" s="101" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D29) &amp; _xll.ohRangeRetrieveError(VolCube)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E30" s="7"/>
       <c r="G30" s="123" t="s">
@@ -3109,8 +3107,8 @@
         <v>EUR_015_SwaptionVols1.xml</v>
       </c>
       <c r="I32" s="116" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(G32:G35,SerializationPath&amp;H32,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(G32:G35,SerializationPath&amp;H32,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.2">
@@ -5570,9 +5568,9 @@
         <f>Currency&amp;"_010_CalibrationParameterGuessesQuotes.xml"</f>
         <v>EUR_010_CalibrationParameterGuessesQuotes.xml</v>
       </c>
-      <c r="D34" s="109">
-        <f>IF(Serialize,_xll.ohObjectSave(C36:F65,SerializationPath&amp;C34,FileOverwrite,Serialize),"--")</f>
-        <v>90</v>
+      <c r="D34" s="109" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C36:F65,SerializationPath&amp;C34,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
